--- a/openspec/design_src/Enemies.xlsx
+++ b/openspec/design_src/Enemies.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 move\Projects\TDFM\mech-td-prototype\openspec\design_src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C645A-3478-4C56-A9AF-D3E67F14E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414F2A7-3E6B-4FE5-9378-F65CDB416ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1320" windowWidth="16010" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="-16290" windowWidth="24015" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#説明" sheetId="4" r:id="rId1"/>
-    <sheet name="Legs" sheetId="3" r:id="rId2"/>
+    <sheet name="Enemies" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -489,7 +489,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
